--- a/Tarea2.xlsx
+++ b/Tarea2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\Metodos constructivos\Tarea_2_MTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e453337d7bb58d0d/Escritorio/Semestre VIII/Metodos y Tecnicas de Construccion/T2_MTC/T2_MTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FAF76-33C0-4C51-A2BA-C771AEB5521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{FB5FAF76-33C0-4C51-A2BA-C771AEB5521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B7C234-FA5B-4BBE-9058-033DF84DF4F6}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidades de Obras" sheetId="2" r:id="rId1"/>
+    <sheet name="Precios Unitarios" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="\0">#REF!</definedName>
@@ -920,7 +921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>ÍTEM</t>
   </si>
@@ -1229,6 +1230,117 @@
   </si>
   <si>
     <t>Tiempo laboral</t>
+  </si>
+  <si>
+    <t>https://portal.ondac.com/601/w3-propertyvalue-122724.html</t>
+  </si>
+  <si>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio unitario</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>Estabilizado c/ Flete 15km</t>
+  </si>
+  <si>
+    <t>https://portal.ondac.com/601/w3-article-161793.html</t>
+  </si>
+  <si>
+    <t>Placas compatadoras de 2000 kg</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>Jornalero</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Material para confeccionar terraplen</t>
+  </si>
+  <si>
+    <t>https://portal.ondac.com/601/w3-article-61490.html</t>
+  </si>
+  <si>
+    <t>Agua industrial</t>
+  </si>
+  <si>
+    <t>Camion agua aljibe</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>Motoniveladora 200HP</t>
+  </si>
+  <si>
+    <t>Rodillo compactador 10TON</t>
+  </si>
+  <si>
+    <t>Camion tolva 15m3</t>
+  </si>
+  <si>
+    <t>Excavadora 20TON</t>
+  </si>
+  <si>
+    <t>Capataz moviemiento de tierra</t>
+  </si>
+  <si>
+    <t>Jornalera 40 horas semaneles</t>
+  </si>
+  <si>
+    <t>Hormigon G-04 (provision)</t>
+  </si>
+  <si>
+    <t>https://portal.ondac.com/601/w3-article-170461.html</t>
+  </si>
+  <si>
+    <t>Servicio bombeo</t>
+  </si>
+  <si>
+    <t>Concretero colocacion hormigon</t>
+  </si>
+  <si>
+    <t>Jornalero capachero</t>
+  </si>
+  <si>
+    <t>Solera tipo A 90x16x30cm</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>https://portal.ondac.com/601/w3-article-160891.html</t>
+  </si>
+  <si>
+    <t>Hormigon H-20 estructuras (provision)</t>
+  </si>
+  <si>
+    <t>Sika antisol bidon 4.5 lts</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>Perdidas</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Albañil</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1328,14 +1440,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1367,6 +1473,195 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1378,7 +1673,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1429,9 +1724,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,14 +1732,48 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1785,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEA5D8-FC52-4E8D-A39A-E5D285FA256C}">
-  <dimension ref="B1:M55"/>
+  <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +2133,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G1" s="17"/>
@@ -1826,7 +2152,7 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1870,20 +2196,20 @@
       <c r="E4" s="5">
         <v>423</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>465</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>100</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <f>F4/(G4*H4)</f>
         <v>0.93</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <f>ROUNDUP(I4,0)</f>
         <v>1</v>
       </c>
@@ -1901,20 +2227,20 @@
       <c r="E5" s="5">
         <v>18466</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>20335</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>100</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>8</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:I30" si="0">F5/(G5*H5)</f>
         <v>25.418749999999999</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <f t="shared" ref="J5:J45" si="1">ROUNDUP(I5,0)</f>
         <v>26</v>
       </c>
@@ -1932,21 +2258,21 @@
       <c r="E6" s="5">
         <v>7022</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>7733</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f>7*4</f>
         <v>28</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>8</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>34.522321428571431</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -1964,21 +2290,21 @@
       <c r="E7" s="5">
         <v>2671</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>2940</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <f>7*4</f>
         <v>28</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>8</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>13.125</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -1996,20 +2322,20 @@
       <c r="E8" s="5">
         <v>1994</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>2197</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <v>100</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>15</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>1.4646666666666666</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2027,20 +2353,20 @@
       <c r="E9" s="5">
         <v>2993</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>3296</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <v>15</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <f t="shared" si="0"/>
         <v>2.1973333333333334</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2058,20 +2384,20 @@
       <c r="E10" s="5">
         <v>3082</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>3396</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>100</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>15</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
         <v>2.2639999999999998</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2089,20 +2415,20 @@
       <c r="E11" s="5">
         <v>1774</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1954</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>90</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>2</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>10.855555555555556</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2120,20 +2446,20 @@
       <c r="E12" s="5">
         <v>1541</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>1697</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>90</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <v>2</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <f t="shared" si="0"/>
         <v>9.4277777777777771</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -2151,20 +2477,20 @@
       <c r="E13" s="5">
         <v>14536</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>16008</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>400</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="24">
         <v>2</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <f t="shared" si="0"/>
         <v>20.010000000000002</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2182,20 +2508,20 @@
       <c r="E14" s="5">
         <v>8850</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>9748</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>400</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <v>2</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <f t="shared" si="0"/>
         <v>12.185</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="24">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2213,20 +2539,20 @@
       <c r="E15" s="5">
         <v>1782</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>1963</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>290</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>2</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <f t="shared" si="0"/>
         <v>3.3844827586206896</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2244,25 +2570,25 @@
       <c r="E16" s="5">
         <v>2907</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>3201</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>290</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <v>2</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <f t="shared" si="0"/>
         <v>5.5189655172413792</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2275,26 +2601,26 @@
       <c r="E17" s="6">
         <v>2180</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>2400</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <f>7*4</f>
         <v>28</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <v>8</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <f t="shared" si="0"/>
         <v>10.714285714285714</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <f>ROUNDUP(I17/8,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2307,26 +2633,26 @@
       <c r="E18" s="6">
         <v>1595</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>1757</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f>7*4</f>
         <v>28</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <v>8</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <f t="shared" si="0"/>
         <v>7.84375</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f t="shared" ref="J18:J23" si="2">ROUNDUP(I18/8,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2339,26 +2665,26 @@
       <c r="E19" s="5">
         <v>808</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>888</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f t="shared" ref="G19:G23" si="3">7*3</f>
         <v>21</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>8</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <f t="shared" si="0"/>
         <v>5.2857142857142856</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2371,26 +2697,26 @@
       <c r="E20" s="5">
         <v>56</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>60</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <v>8</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2403,26 +2729,26 @@
       <c r="E21" s="5">
         <v>109</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>121</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <v>8</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <f t="shared" si="0"/>
         <v>0.72023809523809523</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2435,26 +2761,26 @@
       <c r="E22" s="5">
         <v>74</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>82</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="24">
         <v>8</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="24">
         <f t="shared" si="0"/>
         <v>0.48809523809523808</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2467,26 +2793,26 @@
       <c r="E23" s="5">
         <v>390</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>430</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="24">
         <v>8</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="24">
         <f t="shared" si="0"/>
         <v>2.5595238095238093</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2499,25 +2825,25 @@
       <c r="E24" s="5">
         <v>38552</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>42456</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <v>1120</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="24">
         <v>3</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="24">
         <f t="shared" si="0"/>
         <v>12.635714285714286</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="24">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2530,28 +2856,25 @@
       <c r="E25" s="5">
         <v>9323</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>10266</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>1120</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>3</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <f t="shared" si="0"/>
         <v>3.0553571428571429</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M25" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2564,25 +2887,25 @@
       <c r="E26" s="5">
         <v>19076</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>21008</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <v>1120</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>3</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>6.2523809523809524</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2595,25 +2918,25 @@
       <c r="E27" s="5">
         <v>21668</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>23862</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <v>1120</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>3</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <f t="shared" si="0"/>
         <v>7.1017857142857146</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2626,25 +2949,25 @@
       <c r="E28" s="5">
         <v>54</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>59</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <v>50</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <v>2</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="24">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2657,25 +2980,25 @@
       <c r="E29" s="5">
         <v>42</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>46</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="22">
         <v>50</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="24">
         <v>1</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="24">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2688,25 +3011,25 @@
       <c r="E30" s="5">
         <v>1233</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>1357</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="23">
         <v>50</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="24">
         <v>4</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="24">
         <f t="shared" si="0"/>
         <v>6.7850000000000001</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>2</v>
       </c>
@@ -2721,7 +3044,7 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,25 +3057,25 @@
       <c r="E32" s="7">
         <v>527149</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>580525</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="22">
         <v>1120</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="24">
         <v>10</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="24">
         <f>F32/(G32*H32)</f>
         <v>51.832589285714285</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="24">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2765,25 +3088,25 @@
       <c r="E33" s="7">
         <v>13897</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>15304</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="22">
         <v>60</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="24">
         <v>8</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="24">
         <f t="shared" ref="I33:I45" si="4">F33/(G33*H33)</f>
         <v>31.883333333333333</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="24">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
@@ -2796,26 +3119,26 @@
       <c r="E34" s="7">
         <v>6918</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>7620</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="22">
         <v>30</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="24">
         <v>8</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="24">
         <f t="shared" si="4"/>
         <v>31.75</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="24">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2827,25 +3150,25 @@
       <c r="E35" s="7">
         <v>2006</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>2208</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="22">
         <v>30</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="24">
         <v>8</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="24">
         <f t="shared" si="4"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2858,25 +3181,25 @@
       <c r="E36" s="7">
         <v>527</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>581</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="22">
         <v>10</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <v>5</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <f t="shared" si="4"/>
         <v>11.62</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2889,25 +3212,25 @@
       <c r="E37" s="7">
         <v>29</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>33</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="22">
         <v>1.5</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>4</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2920,25 +3243,25 @@
       <c r="E38" s="7">
         <v>29</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>33</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="22">
         <v>2</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="24">
         <v>2</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="24">
         <f t="shared" si="4"/>
         <v>8.25</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2951,26 +3274,26 @@
       <c r="E39" s="7">
         <v>709</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>780</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="22">
         <v>25</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="24">
         <v>8</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="24">
         <f t="shared" si="4"/>
         <v>3.9</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2982,25 +3305,25 @@
       <c r="E40" s="7">
         <v>52</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>58</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="22">
         <v>10</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="24">
         <v>2</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="24">
         <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
@@ -3013,25 +3336,25 @@
       <c r="E41" s="7">
         <v>32</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>34</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="22">
         <v>15</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="24">
         <v>1</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="24">
         <f t="shared" si="4"/>
         <v>2.2666666666666666</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
@@ -3044,25 +3367,25 @@
       <c r="E42" s="7">
         <v>19</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>23</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="22">
         <v>15</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="24">
         <v>1</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="24">
         <f t="shared" si="4"/>
         <v>1.5333333333333334</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
@@ -3075,25 +3398,25 @@
       <c r="E43" s="7">
         <v>21</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>25</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="22">
         <v>20</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="24">
         <v>1</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="24">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
@@ -3106,25 +3429,25 @@
       <c r="E44" s="7">
         <v>216</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>238</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="22">
         <v>30</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="24">
         <v>2</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="24">
         <f t="shared" si="4"/>
         <v>3.9666666666666668</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
@@ -3137,100 +3460,645 @@
       <c r="E45" s="7">
         <v>330</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>364</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="22">
         <v>15</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="24">
         <v>4</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="24">
         <f t="shared" si="4"/>
         <v>6.0666666666666664</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5">
-        <v>2993</v>
-      </c>
-      <c r="F52" s="21">
-        <v>3296</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="K52" s="22" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1541</v>
-      </c>
-      <c r="F53" s="21">
-        <v>1697</v>
-      </c>
-      <c r="G53" s="18"/>
-      <c r="K53" s="16" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5">
-        <v>56</v>
-      </c>
-      <c r="F54" s="21">
-        <v>60</v>
-      </c>
-      <c r="G54" s="18"/>
-      <c r="K54" s="22" t="s">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1233</v>
-      </c>
-      <c r="F55" s="21">
-        <v>1357</v>
-      </c>
-      <c r="G55" s="18"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="26"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K54" r:id="rId1" xr:uid="{24239E58-75B9-45AA-AF19-6AC6799F9AED}"/>
-    <hyperlink ref="K52" r:id="rId2" xr:uid="{C81E8442-4D2B-4D2F-8DC2-C14574C9FECC}"/>
+    <hyperlink ref="L50" r:id="rId1" xr:uid="{4F9B7575-F2A3-4F93-8F4B-83E2A34878E8}"/>
+    <hyperlink ref="L48" r:id="rId2" xr:uid="{F79017D3-1CD9-4986-A533-B1C7E9701BCB}"/>
+    <hyperlink ref="L47" r:id="rId3" xr:uid="{9FAB55DF-E9B3-42ED-A488-3D07784A35C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF8E548-E6B1-4F74-A84D-3EE7E259C2AF}">
+  <dimension ref="B1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>18600</v>
+      </c>
+      <c r="F3" s="39">
+        <f>ROUNDUP(E3*D3,0)</f>
+        <v>22320</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="38">
+        <v>5598</v>
+      </c>
+      <c r="F4" s="39">
+        <f t="shared" ref="F4:F5" si="0">ROUNDUP(E4*D4,0)</f>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>13775</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="0"/>
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="45">
+        <f>SUM(F3:F5)</f>
+        <v>25971</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="39">
+        <f>ROUNDUP(E9*D9,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="38">
+        <v>680</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" ref="F10:F17" si="1">ROUNDUP(E10*D10,0)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="38">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E11" s="38">
+        <v>22566</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E12" s="38">
+        <v>40000</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="38">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="E14" s="38">
+        <v>28257</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>30000</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3.986E-3</v>
+      </c>
+      <c r="E16" s="38">
+        <v>29600</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E17" s="41">
+        <v>12300</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="45">
+        <f>SUM(F9:F17)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="E21" s="38">
+        <v>47645</v>
+      </c>
+      <c r="F21" s="39">
+        <f>ROUNDUP(E21*D21,0)</f>
+        <v>50028</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>8240</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" ref="F22:F24" si="2">ROUNDUP(E22*D22,0)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.49</v>
+      </c>
+      <c r="E23" s="38">
+        <v>23227</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="2"/>
+        <v>11382</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="42">
+        <v>19296</v>
+      </c>
+      <c r="F24" s="43">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="45">
+        <f>SUM(F21:F24)</f>
+        <v>70036</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="38">
+        <v>1</v>
+      </c>
+      <c r="E28" s="38">
+        <v>7250</v>
+      </c>
+      <c r="F28" s="39">
+        <f>ROUNDUP(E28*D28,0)</f>
+        <v>7250</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="E29" s="38">
+        <v>53702</v>
+      </c>
+      <c r="F29" s="39">
+        <f t="shared" ref="F29:F33" si="3">ROUNDUP(E29*D29,0)</f>
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="38">
+        <v>1</v>
+      </c>
+      <c r="E30" s="38">
+        <v>9490</v>
+      </c>
+      <c r="F30" s="39">
+        <f t="shared" si="3"/>
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="38">
+        <v>5</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="39">
+        <f>ROUNDUP(0.05*(SUM(F29:F30)),0)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E32" s="38">
+        <v>28500</v>
+      </c>
+      <c r="F32" s="39">
+        <f>ROUNDUP(E32*D32,0)</f>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="41">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E33" s="42">
+        <v>13775</v>
+      </c>
+      <c r="F33" s="43">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="45">
+        <f>SUM(F28:F33)</f>
+        <v>21247</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H28" r:id="rId1" xr:uid="{70D01C58-A840-4B00-8B67-F082D995870C}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{4A4D2A15-FC83-4A39-82CE-27305F1A0DA2}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{287C67A6-B6DC-4E8F-8BC5-F589A2C0755F}"/>
+    <hyperlink ref="H21" r:id="rId4" xr:uid="{603A38A8-19A8-448A-8A97-551316AB4B07}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tarea2.xlsx
+++ b/Tarea2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e453337d7bb58d0d/Escritorio/Semestre VIII/Metodos y Tecnicas de Construccion/T2_MTC/T2_MTC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Uandes\8vo_semestre\Metodos constructivos\T2_MTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{FB5FAF76-33C0-4C51-A2BA-C771AEB5521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B7C234-FA5B-4BBE-9058-033DF84DF4F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D0E744-58D8-463C-B3AF-3F9BF4EE1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34EA7DBA-2AF9-4D93-85E9-5C41DA91D398}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidades de Obras" sheetId="2" r:id="rId1"/>
@@ -1673,7 +1673,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1740,19 +1740,15 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2113,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEA5D8-FC52-4E8D-A39A-E5D285FA256C}">
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3015,18 +3011,18 @@
         <v>1357</v>
       </c>
       <c r="G30" s="23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" s="24">
         <v>4</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="0"/>
-        <v>6.7850000000000001</v>
+        <v>8.4812499999999993</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
@@ -3138,7 +3134,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3293,7 +3289,7 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3488,62 +3484,45 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L49" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L50" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="26"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="25"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="26"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3577,37 +3556,37 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <v>1.2</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="36">
         <v>18600</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="37">
         <f>ROUNDUP(E3*D3,0)</f>
         <v>22320</v>
       </c>
@@ -3616,82 +3595,82 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>0.16</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>5598</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <f t="shared" ref="F4:F5" si="0">ROUNDUP(E4*D4,0)</f>
         <v>896</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>0.2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>13775</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
         <v>2755</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <f>SUM(F3:F5)</f>
         <v>25971</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>1.3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>1000</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="37">
         <f>ROUNDUP(E9*D9,0)</f>
         <v>1300</v>
       </c>
@@ -3700,190 +3679,190 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0.06</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>680</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="37">
         <f t="shared" ref="F10:F17" si="1">ROUNDUP(E10*D10,0)</f>
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>22566</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="37">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>40000</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="37">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>0.01</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>25000</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="37">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>0.12570000000000001</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>28257</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="37">
         <f t="shared" si="1"/>
         <v>3552</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36">
         <v>30000</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="37">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>3.986E-3</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>29600</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>1.6E-2</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <v>12300</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="44">
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="43">
         <f>SUM(F9:F17)</f>
         <v>6500</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>1.05</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="36">
         <v>47645</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="37">
         <f>ROUNDUP(E21*D21,0)</f>
         <v>50028</v>
       </c>
@@ -3892,100 +3871,100 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>1</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="36">
         <v>8240</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="37">
         <f t="shared" ref="F22:F24" si="2">ROUNDUP(E22*D22,0)</f>
         <v>8240</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0.49</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="36">
         <v>23227</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="37">
         <f t="shared" si="2"/>
         <v>11382</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <v>0.02</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="40">
         <v>19296</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="41">
         <f t="shared" si="2"/>
         <v>386</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="43">
         <f>SUM(F21:F24)</f>
         <v>70036</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>1</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="36">
         <v>7250</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="37">
         <f>ROUNDUP(E28*D28,0)</f>
         <v>7250</v>
       </c>
@@ -3994,100 +3973,100 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>0.04</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="36">
         <v>53702</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="37">
         <f t="shared" ref="F29:F33" si="3">ROUNDUP(E29*D29,0)</f>
         <v>2149</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>1</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="36">
         <v>9490</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="37">
         <f t="shared" si="3"/>
         <v>9490</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>5</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <f>ROUNDUP(0.05*(SUM(F29:F30)),0)</f>
         <v>582</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>28500</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <f>ROUNDUP(E32*D32,0)</f>
         <v>1197</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="39">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="40">
         <v>13775</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="41">
         <f t="shared" si="3"/>
         <v>579</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="43">
         <f>SUM(F28:F33)</f>
         <v>21247</v>
       </c>
